--- a/sources/case/OutRequest.xlsx
+++ b/sources/case/OutRequest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="25605" windowHeight="14160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="525" windowWidth="25605" windowHeight="14160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -212,8 +212,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -602,7 +602,7 @@
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>119</v>
       </c>
       <c r="D2" t="s">
@@ -622,7 +622,7 @@
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>120</v>
       </c>
       <c r="D3" t="s">
@@ -642,7 +642,7 @@
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" t="s">
@@ -662,7 +662,7 @@
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>4.25</v>
       </c>
       <c r="D5" t="s">
@@ -682,7 +682,7 @@
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>3.9</v>
       </c>
       <c r="D6" t="s">
@@ -698,6 +698,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -705,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -758,13 +759,13 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>119</v>
       </c>
       <c r="G2" t="s">
@@ -787,13 +788,13 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>120</v>
       </c>
       <c r="G3" t="s">
@@ -816,13 +817,13 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>4</v>
       </c>
       <c r="G4" t="s">
@@ -845,13 +846,13 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>4.25</v>
       </c>
       <c r="G5" t="s">
@@ -874,13 +875,13 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>3.9</v>
       </c>
       <c r="G6" t="s">

--- a/sources/case/OutRequest.xlsx
+++ b/sources/case/OutRequest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <t>CaseID</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>2017-10-01T22:54:00+08:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int119</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +719,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -765,8 +777,8 @@
       <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2">
-        <v>119</v>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>37</v>
@@ -794,8 +806,8 @@
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2">
-        <v>120</v>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -823,8 +835,8 @@
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="2">
-        <v>4</v>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -897,5 +909,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sources/case/OutRequest.xlsx
+++ b/sources/case/OutRequest.xlsx
@@ -9,19 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="25605" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="13665" yWindow="900" windowWidth="25605" windowHeight="14160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
   <si>
     <t>CaseID</t>
   </si>
@@ -68,16 +73,19 @@
     <t>reason</t>
   </si>
   <si>
+    <t>啦啦</t>
+  </si>
+  <si>
     <t>start_time</t>
   </si>
   <si>
+    <t>2017-07-28T12:32:00+08:00</t>
+  </si>
+  <si>
     <t>end_time</t>
   </si>
   <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
+    <t>2017-07-29T12:32:00+08:00</t>
   </si>
   <si>
     <t>approval_create</t>
@@ -95,6 +103,36 @@
     <t>OutRequest_01</t>
   </si>
   <si>
+    <t>时长小于5天</t>
+  </si>
+  <si>
+    <t>时长等于5天</t>
+  </si>
+  <si>
+    <t>时长大于5天</t>
+  </si>
+  <si>
+    <t>时长等于4小时</t>
+  </si>
+  <si>
+    <t>时长等于60分钟</t>
+  </si>
+  <si>
+    <t>时长小于4小时</t>
+  </si>
+  <si>
+    <t>2017-07-28T12:32:00+08:01</t>
+  </si>
+  <si>
+    <t>2017-07-29T12:32:00+08:01</t>
+  </si>
+  <si>
+    <t>2017-07-28T12:32:00+08:02</t>
+  </si>
+  <si>
+    <t>2017-07-29T12:32:00+08:02</t>
+  </si>
+  <si>
     <t>OutRequest_02</t>
   </si>
   <si>
@@ -107,68 +145,26 @@
     <t>OutRequest_05</t>
   </si>
   <si>
-    <t>${Auth.tenant_id}</t>
-  </si>
-  <si>
-    <t>${Auth.user_id}</t>
-  </si>
-  <si>
-    <t>2017-06-26T19:00:00+08:00</t>
-  </si>
-  <si>
-    <t>2017-06-26T23:00:00+08:00</t>
-  </si>
-  <si>
-    <t>2017-10-01T19:00:00+08:00</t>
-  </si>
-  <si>
-    <t>加班时长等于4小时</t>
-  </si>
-  <si>
-    <t>加班时长小于4小时</t>
-  </si>
-  <si>
-    <t>加班时长大于4小时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-10-01T23:10:00+08:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认审批流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起人为指定部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-10-01T23:15:00+08:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-10-01T22:54:00+08:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!Int119</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!Int120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!Int4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>OutRequest_06</t>
+  </si>
+  <si>
+    <t>OutRequest_1</t>
+  </si>
+  <si>
+    <t>考勤需要</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-02T09:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-02T12:00:00+08:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -177,11 +173,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -190,20 +184,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,22 +208,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -511,17 +498,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -572,19 +554,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -601,314 +583,359 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1">
         <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
         <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="1">
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4.25</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="1">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4.25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sources/case/OutRequest.xlsx
+++ b/sources/case/OutRequest.xlsx
@@ -79,15 +79,9 @@
     <t>start_time</t>
   </si>
   <si>
-    <t>2017-07-28T12:32:00+08:00</t>
-  </si>
-  <si>
     <t>end_time</t>
   </si>
   <si>
-    <t>2017-07-29T12:32:00+08:00</t>
-  </si>
-  <si>
     <t>approval_create</t>
   </si>
   <si>
@@ -121,18 +115,6 @@
     <t>时长小于4小时</t>
   </si>
   <si>
-    <t>2017-07-28T12:32:00+08:01</t>
-  </si>
-  <si>
-    <t>2017-07-29T12:32:00+08:01</t>
-  </si>
-  <si>
-    <t>2017-07-28T12:32:00+08:02</t>
-  </si>
-  <si>
-    <t>2017-07-29T12:32:00+08:02</t>
-  </si>
-  <si>
     <t>OutRequest_02</t>
   </si>
   <si>
@@ -158,13 +140,31 @@
   </si>
   <si>
     <t>{Date.LastMonth}-02T12:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-28T12:32:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-29T12:32:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-28T12:32:00+08:01</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-29T12:32:00+08:01</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-28T12:32:00+08:02</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-29T12:32:00+08:02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -173,16 +173,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -211,10 +219,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -547,7 +556,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -557,180 +566,181 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2">
+        <v>119</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="2">
+        <v>120</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1">
-        <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C4" s="2">
+        <v>121</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1">
-        <v>121</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="F8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -740,202 +750,207 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1"/>
+    <col min="6" max="6" width="29.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2">
         <v>119</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1">
-        <v>120</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="D4" s="2">
+        <v>121</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="G8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/case/OutRequest.xlsx
+++ b/sources/case/OutRequest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13665" yWindow="900" windowWidth="25605" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="13665" yWindow="900" windowWidth="25605" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
   <si>
     <t>CaseID</t>
   </si>
@@ -158,13 +158,17 @@
   </si>
   <si>
     <t>{Date.LastMonth}-29T12:32:00+08:02</t>
+  </si>
+  <si>
+    <t>OutRequest_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -188,6 +192,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
@@ -219,11 +229,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -506,52 +517,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -566,7 +583,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,7 +678,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -719,7 +736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -732,16 +749,17 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -749,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/sources/case/OutRequest.xlsx
+++ b/sources/case/OutRequest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13665" yWindow="900" windowWidth="25605" windowHeight="14160"/>
+    <workbookView xWindow="13665" yWindow="900" windowWidth="25605" windowHeight="14160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t>CaseID</t>
   </si>
@@ -97,24 +97,6 @@
     <t>OutRequest_01</t>
   </si>
   <si>
-    <t>时长小于5天</t>
-  </si>
-  <si>
-    <t>时长等于5天</t>
-  </si>
-  <si>
-    <t>时长大于5天</t>
-  </si>
-  <si>
-    <t>时长等于4小时</t>
-  </si>
-  <si>
-    <t>时长等于60分钟</t>
-  </si>
-  <si>
-    <t>时长小于4小时</t>
-  </si>
-  <si>
     <t>OutRequest_02</t>
   </si>
   <si>
@@ -127,9 +109,6 @@
     <t>OutRequest_05</t>
   </si>
   <si>
-    <t>OutRequest_06</t>
-  </si>
-  <si>
     <t>OutRequest_1</t>
   </si>
   <si>
@@ -142,25 +121,68 @@
     <t>{Date.LastMonth}-02T12:00:00+08:00</t>
   </si>
   <si>
-    <t>{Date.LastMonth}-28T12:32:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-29T12:32:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-28T12:32:00+08:01</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-29T12:32:00+08:01</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-28T12:32:00+08:02</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-29T12:32:00+08:02</t>
-  </si>
-  <si>
-    <t>OutRequest_04</t>
+    <t>默认审批流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认审批流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起人为指定部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起人为指定部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${Auth.tenant_id}</t>
+  </si>
+  <si>
+    <t>${Auth.user_id}</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>默认审批流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起人为指定部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-01T19:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-01T23:10:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-26T19:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-26T23:00:00+08:00</t>
+  </si>
+  <si>
+    <t>外出时长等于4小时</t>
+  </si>
+  <si>
+    <t>外出时长大于4小时</t>
+  </si>
+  <si>
+    <t>外出时长小于4小时</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-01T23:15:00+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-01T22:54:00+08:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -191,13 +213,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
@@ -226,18 +256,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -517,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -532,7 +564,7 @@
     <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -552,7 +584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -580,19 +612,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="30.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="38.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -621,104 +653,104 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
-        <v>120</v>
+        <v>4.25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
-        <v>121</v>
+        <v>3.9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
@@ -729,31 +761,11 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>37</v>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -765,25 +777,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1"/>
-    <col min="6" max="6" width="29.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,19 +807,25 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -816,22 +835,28 @@
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2">
-        <v>119</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -839,22 +864,28 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2">
-        <v>120</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>38</v>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -862,22 +893,28 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2">
-        <v>121</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3.9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -885,22 +922,28 @@
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
@@ -908,22 +951,28 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -931,44 +980,28 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>37</v>
+      <c r="H7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sources/case/OutRequest.xlsx
+++ b/sources/case/OutRequest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13665" yWindow="900" windowWidth="25605" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="13665" yWindow="900" windowWidth="25605" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>API</t>
   </si>
   <si>
-    <t>OutRequest</t>
-  </si>
-  <si>
     <t>BasePath</t>
   </si>
   <si>
@@ -183,6 +180,10 @@
   </si>
   <si>
     <t>{Date.LastMonth}-01T22:54:00+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,18 +550,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="33.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -572,36 +573,36 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -636,136 +637,136 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>4.25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>3.9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -801,202 +802,202 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="2">
         <v>4.25</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="F4" s="2">
         <v>3.9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
